--- a/RelationshipMap.xlsx
+++ b/RelationshipMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp-my.sharepoint.com/personal/robertb_sccwrp_org/Documents/BLM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toled\Desktop\SCCWRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{E5F62A78-7AC5-CA44-917A-592C1843A115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB75E414-C1BB-5940-949E-7BA7504AF057}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC1531-D7AE-48BD-A692-50496318FF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
+    <workbookView xWindow="4920" yWindow="3060" windowWidth="19230" windowHeight="11100" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="189">
   <si>
     <t>Temperature</t>
   </si>
@@ -91,9 +90,6 @@
     <t>Oxygen, Dissolved</t>
   </si>
   <si>
-    <t>WaterSpConductivity</t>
-  </si>
-  <si>
     <t>SpecificConductivity</t>
   </si>
   <si>
@@ -139,9 +135,6 @@
     <t>Nominal</t>
   </si>
   <si>
-    <t>FlowMeterSect1Depth</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -151,45 +144,15 @@
     <t>Bank, Left</t>
   </si>
   <si>
-    <t>Bank, Right</t>
-  </si>
-  <si>
     <t>Midchannel</t>
   </si>
   <si>
-    <t>FlowMeterSect2Depth</t>
-  </si>
-  <si>
-    <t>FlowMeterSect3Depth</t>
-  </si>
-  <si>
-    <t>FlowMeterSect4Depth</t>
-  </si>
-  <si>
-    <t>FlowMeterSect5Depth</t>
-  </si>
-  <si>
     <t>"Midchannel2" if FlowMeterSectionsMeasured &gt; 3 else "Bank, Right"</t>
   </si>
   <si>
     <t>"Midchannel3" if FlowMeterSectionsMeasured &gt; 4 else "Bank, Right"</t>
   </si>
   <si>
-    <t>FlowMeterSect1Velocity</t>
-  </si>
-  <si>
-    <t>FlowMeterSect2Velocity</t>
-  </si>
-  <si>
-    <t>FlowMeterSect3Velocity</t>
-  </si>
-  <si>
-    <t>FlowMeterSect4Velocity</t>
-  </si>
-  <si>
-    <t>FlowMeterSect5Velocity</t>
-  </si>
-  <si>
     <t>Velocity</t>
   </si>
   <si>
@@ -205,15 +168,6 @@
     <t>Habitat</t>
   </si>
   <si>
-    <t>Wadeability</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Don't know where to get this from, need to ask Dario</t>
-  </si>
-  <si>
     <t>SkyCode</t>
   </si>
   <si>
@@ -232,9 +186,6 @@
     <t>WaterOdor</t>
   </si>
   <si>
-    <t>EvidenceofFires</t>
-  </si>
-  <si>
     <t>Evidence of Fire</t>
   </si>
   <si>
@@ -523,9 +474,6 @@
     <t>FlowMeterSect4DepthUnit</t>
   </si>
   <si>
-    <t>FlowMeterSect5DepthUnit</t>
-  </si>
-  <si>
     <t>FlowMeterSect1VelocityUnit</t>
   </si>
   <si>
@@ -538,9 +486,6 @@
     <t>FlowMeterSect4VelocityUnit</t>
   </si>
   <si>
-    <t>FlowMeterSect5VelocityUnit</t>
-  </si>
-  <si>
     <t>FieldResults, HabitatResults</t>
   </si>
   <si>
@@ -626,6 +571,36 @@
   </si>
   <si>
     <t>FieldReplicate</t>
+  </si>
+  <si>
+    <t>FlowmeterSect1Depth</t>
+  </si>
+  <si>
+    <t>FlowmeterSect2Depth</t>
+  </si>
+  <si>
+    <t>FlowmeterSect3Depth</t>
+  </si>
+  <si>
+    <t>FlowmeterSect4Depth</t>
+  </si>
+  <si>
+    <t>FlowmeterSect1Velocity</t>
+  </si>
+  <si>
+    <t>FlowmeterSect2Velocity</t>
+  </si>
+  <si>
+    <t>FlowmeterSect3Velocity</t>
+  </si>
+  <si>
+    <t>FlowmeterSect4Velocity</t>
+  </si>
+  <si>
+    <t>WaterSpCondictivity</t>
+  </si>
+  <si>
+    <t>EvidenceOfFires</t>
   </si>
 </sst>
 </file>
@@ -1017,24 +992,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71EBA9C-90F2-5945-896F-0A96C8D71702}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1045,19 +1020,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1068,21 +1043,21 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1091,19 +1066,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1114,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1137,21 +1112,21 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1160,19 +1135,19 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1183,19 +1158,19 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1206,21 +1181,21 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1229,19 +1204,19 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1252,21 +1227,21 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1275,409 +1250,409 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
       </c>
       <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -1686,293 +1661,228 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1980,806 +1890,806 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227F44FB-EC10-E34D-B181-672CA1B29D12}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="134.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="134.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C50" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>112</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B52" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>113</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="D43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D53" t="s">
         <v>114</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
         <v>114</v>
       </c>
-      <c r="D44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>117</v>
       </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>121</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>126</v>
       </c>
-      <c r="D48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
         <v>127</v>
       </c>
-      <c r="D49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>128</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="D53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" t="s">
-        <v>145</v>
-      </c>
       <c r="D64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
         <v>23</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>24</v>
-      </c>
-      <c r="D67" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RelationshipMap.xlsx
+++ b/RelationshipMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toled\Desktop\SCCWRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC1531-D7AE-48BD-A692-50496318FF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C599F1-8B05-4E95-ABD3-5F4944ED6019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3060" windowWidth="19230" windowHeight="11100" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
+    <workbookView xWindow="57300" yWindow="885" windowWidth="23160" windowHeight="11910" activeTab="1" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="190">
   <si>
     <t>Temperature</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>EvidenceOfFires</t>
+  </si>
+  <si>
+    <t>FieldResult</t>
   </si>
 </sst>
 </file>
@@ -994,11 +997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71EBA9C-90F2-5945-896F-0A96C8D71702}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -1009,7 +1012,7 @@
     <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>184</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1890,11 +1893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227F44FB-EC10-E34D-B181-672CA1B29D12}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
@@ -1906,7 +1909,7 @@
     <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -2246,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>22</v>
       </c>

--- a/RelationshipMap.xlsx
+++ b/RelationshipMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toled\Desktop\SCCWRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toled\Desktop\BLM_data_reformatter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C599F1-8B05-4E95-ABD3-5F4944ED6019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD4A34-35A9-4C3F-8042-AF4484C2C18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57300" yWindow="885" windowWidth="23160" windowHeight="11910" activeTab="1" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{F9812EE0-3961-FE4F-824E-79A3DFBA05C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="190">
   <si>
     <t>Temperature</t>
   </si>
@@ -1891,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227F44FB-EC10-E34D-B181-672CA1B29D12}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2695,6 +2695,54 @@
         <v>24</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
